--- a/biology/Médecine/Inhibiteur_dépendant_de_la_protéine_Z/Inhibiteur_dépendant_de_la_protéine_Z.xlsx
+++ b/biology/Médecine/Inhibiteur_dépendant_de_la_protéine_Z/Inhibiteur_dépendant_de_la_protéine_Z.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Inhibiteur_d%C3%A9pendant_de_la_prot%C3%A9ine_Z</t>
+          <t>Inhibiteur_dépendant_de_la_protéine_Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'inhibiteur dépendant de la protéine Z (ZPI pour Protein Z-related protease inhibitor) est une protéine intervenant dans la régulation de la coagulation sanguine.
 Il inhibe les facteurs de coagulation X et XI. Pour l'inhibition du facteur X, il nécessite la protéine Z comme cofacteur, des phospholipides et du calcium.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Inhibiteur_d%C3%A9pendant_de_la_prot%C3%A9ine_Z</t>
+          <t>Inhibiteur_dépendant_de_la_protéine_Z</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Déficit</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le déficit en inhibiteur dépendant de la protéine Z est une maladie rare qui mène à un risque accru de thrombose (thrombophilie); le risque relatif est évalué à 3,3[1].
-Ce déficit est retrouvé chez approximativement 4,4 % des patients présentant une thrombose[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le déficit en inhibiteur dépendant de la protéine Z est une maladie rare qui mène à un risque accru de thrombose (thrombophilie); le risque relatif est évalué à 3,3.
+Ce déficit est retrouvé chez approximativement 4,4 % des patients présentant une thrombose.
 </t>
         </is>
       </c>
